--- a/data/pca/factorExposure/factorExposure_2012-07-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-07-06.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01736870302474092</v>
+        <v>-0.0223415025269351</v>
       </c>
       <c r="C2">
-        <v>0.02778145064956746</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02419867420962225</v>
+      </c>
+      <c r="D2">
+        <v>0.005455059899763096</v>
+      </c>
+      <c r="E2">
+        <v>-0.01752772587292423</v>
+      </c>
+      <c r="F2">
+        <v>-0.004872447480309683</v>
+      </c>
+      <c r="G2">
+        <v>-0.01601237861316285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06879466506640453</v>
+        <v>-0.07564247724465882</v>
       </c>
       <c r="C4">
-        <v>0.05939053154003005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.04000912286914118</v>
+      </c>
+      <c r="D4">
+        <v>0.06970934877537815</v>
+      </c>
+      <c r="E4">
+        <v>0.002824853873438684</v>
+      </c>
+      <c r="F4">
+        <v>-0.02826919059015675</v>
+      </c>
+      <c r="G4">
+        <v>0.02172314647897616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.09614704408114609</v>
+        <v>-0.1116840420278276</v>
       </c>
       <c r="C6">
-        <v>0.06668741924726541</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.04556607357424249</v>
+      </c>
+      <c r="D6">
+        <v>0.01227845516955607</v>
+      </c>
+      <c r="E6">
+        <v>0.002357238616483797</v>
+      </c>
+      <c r="F6">
+        <v>-0.04332997144446878</v>
+      </c>
+      <c r="G6">
+        <v>-0.02148172728932233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04465687060961358</v>
+        <v>-0.05399727799928995</v>
       </c>
       <c r="C7">
-        <v>0.03492466280499096</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.02613910767233791</v>
+      </c>
+      <c r="D7">
+        <v>0.03362931742874811</v>
+      </c>
+      <c r="E7">
+        <v>-0.02160801486433778</v>
+      </c>
+      <c r="F7">
+        <v>-0.0317075939159272</v>
+      </c>
+      <c r="G7">
+        <v>0.03634135324679438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.03253594321991964</v>
+        <v>-0.03435661617366693</v>
       </c>
       <c r="C8">
-        <v>0.02723703601412052</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01775800237863593</v>
+      </c>
+      <c r="D8">
+        <v>0.03922510563492018</v>
+      </c>
+      <c r="E8">
+        <v>-0.004073932947798762</v>
+      </c>
+      <c r="F8">
+        <v>-0.05050618303647488</v>
+      </c>
+      <c r="G8">
+        <v>-0.02222941069886097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06195503113928152</v>
+        <v>-0.06994005321778292</v>
       </c>
       <c r="C9">
-        <v>0.0462154459139498</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02962003925945245</v>
+      </c>
+      <c r="D9">
+        <v>0.07027168994385301</v>
+      </c>
+      <c r="E9">
+        <v>-0.01609749738201416</v>
+      </c>
+      <c r="F9">
+        <v>-0.03714803303052335</v>
+      </c>
+      <c r="G9">
+        <v>0.007215299791224545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02955577143878003</v>
+        <v>-0.04137451303055907</v>
       </c>
       <c r="C10">
-        <v>0.03839492298798132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.03909694178215591</v>
+      </c>
+      <c r="D10">
+        <v>-0.1849750607568854</v>
+      </c>
+      <c r="E10">
+        <v>-0.04669878559132181</v>
+      </c>
+      <c r="F10">
+        <v>-0.03614508807644479</v>
+      </c>
+      <c r="G10">
+        <v>0.02271614535889947</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.06965939625646982</v>
+        <v>-0.07550364288598178</v>
       </c>
       <c r="C11">
-        <v>0.053638132785845</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.03158005882752737</v>
+      </c>
+      <c r="D11">
+        <v>0.06795160754655478</v>
+      </c>
+      <c r="E11">
+        <v>0.007781810479916859</v>
+      </c>
+      <c r="F11">
+        <v>-0.03458953347794349</v>
+      </c>
+      <c r="G11">
+        <v>0.03639100380916808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.05259874908664014</v>
+        <v>-0.06019050278398986</v>
       </c>
       <c r="C12">
-        <v>0.05195128471422573</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03558354262891207</v>
+      </c>
+      <c r="D12">
+        <v>0.05114614349862387</v>
+      </c>
+      <c r="E12">
+        <v>-0.009263613586868787</v>
+      </c>
+      <c r="F12">
+        <v>-0.02527102017057895</v>
+      </c>
+      <c r="G12">
+        <v>0.03133136131685405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.05836927635625287</v>
+        <v>-0.06492397186946883</v>
       </c>
       <c r="C13">
-        <v>0.0515315950687843</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.0310232268672799</v>
+      </c>
+      <c r="D13">
+        <v>0.05345125362179339</v>
+      </c>
+      <c r="E13">
+        <v>-0.003744915895204278</v>
+      </c>
+      <c r="F13">
+        <v>-0.01980197097874248</v>
+      </c>
+      <c r="G13">
+        <v>0.01909457461616318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.03291151087503274</v>
+        <v>-0.03783025064270193</v>
       </c>
       <c r="C14">
-        <v>0.02887802105937642</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02213564131152185</v>
+      </c>
+      <c r="D14">
+        <v>0.009645903297868519</v>
+      </c>
+      <c r="E14">
+        <v>-0.01707213522029043</v>
+      </c>
+      <c r="F14">
+        <v>-0.01312988372092002</v>
+      </c>
+      <c r="G14">
+        <v>-0.006922146466774764</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.0396117816708117</v>
+        <v>-0.04039602581572482</v>
       </c>
       <c r="C15">
-        <v>0.01447026150422529</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.005071891632642171</v>
+      </c>
+      <c r="D15">
+        <v>0.01878737699240914</v>
+      </c>
+      <c r="E15">
+        <v>-0.04220246368497105</v>
+      </c>
+      <c r="F15">
+        <v>0.001030527050619087</v>
+      </c>
+      <c r="G15">
+        <v>-0.01859524893632594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05797216871870853</v>
+        <v>-0.06187657150717561</v>
       </c>
       <c r="C16">
-        <v>0.04458196734028862</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02769484337132134</v>
+      </c>
+      <c r="D16">
+        <v>0.0599196424679602</v>
+      </c>
+      <c r="E16">
+        <v>0.0002523588515637322</v>
+      </c>
+      <c r="F16">
+        <v>-0.03012603643768979</v>
+      </c>
+      <c r="G16">
+        <v>0.02213673896013925</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.06229388923689389</v>
+        <v>-0.06158053832218927</v>
       </c>
       <c r="C20">
-        <v>0.03761908802320251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01855810554299744</v>
+      </c>
+      <c r="D20">
+        <v>0.04949778095011944</v>
+      </c>
+      <c r="E20">
+        <v>-0.01785658051843795</v>
+      </c>
+      <c r="F20">
+        <v>-0.02637016535839223</v>
+      </c>
+      <c r="G20">
+        <v>0.02493481739317975</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.02744280936956158</v>
+        <v>-0.02354585162003989</v>
       </c>
       <c r="C21">
-        <v>0.0008906635353954924</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.009905465906649834</v>
+      </c>
+      <c r="D21">
+        <v>0.03008923207429185</v>
+      </c>
+      <c r="E21">
+        <v>-0.09437114015468523</v>
+      </c>
+      <c r="F21">
+        <v>0.005788032896321699</v>
+      </c>
+      <c r="G21">
+        <v>-0.0216490462840085</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.06870110392669175</v>
+        <v>-0.06762504378486238</v>
       </c>
       <c r="C22">
-        <v>0.0772303145027813</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04783511567691239</v>
+      </c>
+      <c r="D22">
+        <v>0.1074231071546881</v>
+      </c>
+      <c r="E22">
+        <v>-0.6093148578046849</v>
+      </c>
+      <c r="F22">
+        <v>0.1474907473620518</v>
+      </c>
+      <c r="G22">
+        <v>-0.03181898612235885</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.06945564652842437</v>
+        <v>-0.06833579003950591</v>
       </c>
       <c r="C23">
-        <v>0.07676353724656931</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.04727901666516493</v>
+      </c>
+      <c r="D23">
+        <v>0.1085585756951973</v>
+      </c>
+      <c r="E23">
+        <v>-0.6085372356456437</v>
+      </c>
+      <c r="F23">
+        <v>0.1472796642641036</v>
+      </c>
+      <c r="G23">
+        <v>-0.03342089071878866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06443986749553283</v>
+        <v>-0.07247183253600097</v>
       </c>
       <c r="C24">
-        <v>0.05217937308387326</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03296130398960818</v>
+      </c>
+      <c r="D24">
+        <v>0.06666296322698924</v>
+      </c>
+      <c r="E24">
+        <v>-0.006524591352163296</v>
+      </c>
+      <c r="F24">
+        <v>-0.04391397115204414</v>
+      </c>
+      <c r="G24">
+        <v>0.0145042767464876</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.06510634116430565</v>
+        <v>-0.07075625558589516</v>
       </c>
       <c r="C25">
-        <v>0.058277272286358</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03842369801048551</v>
+      </c>
+      <c r="D25">
+        <v>0.06423800162623231</v>
+      </c>
+      <c r="E25">
+        <v>-0.006918920754490378</v>
+      </c>
+      <c r="F25">
+        <v>-0.03734660731576959</v>
+      </c>
+      <c r="G25">
+        <v>0.01276948189062536</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.03902665244772502</v>
+        <v>-0.04023761040958423</v>
       </c>
       <c r="C26">
-        <v>0.01396646396464396</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.005457347287299241</v>
+      </c>
+      <c r="D26">
+        <v>0.01971903058533857</v>
+      </c>
+      <c r="E26">
+        <v>-0.03924097416641097</v>
+      </c>
+      <c r="F26">
+        <v>-0.02006664857077818</v>
+      </c>
+      <c r="G26">
+        <v>0.01853271168682172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.05333780014621613</v>
+        <v>-0.07533226717399374</v>
       </c>
       <c r="C28">
-        <v>0.075749828612519</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.07615334647777305</v>
+      </c>
+      <c r="D28">
+        <v>-0.3241735927589656</v>
+      </c>
+      <c r="E28">
+        <v>-0.04493005410965908</v>
+      </c>
+      <c r="F28">
+        <v>-0.05033254368600034</v>
+      </c>
+      <c r="G28">
+        <v>-0.02850755378935859</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.03604514224301279</v>
+        <v>-0.04212152324938902</v>
       </c>
       <c r="C29">
-        <v>0.03294461966908446</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02558295900804001</v>
+      </c>
+      <c r="D29">
+        <v>0.00953676131914013</v>
+      </c>
+      <c r="E29">
+        <v>-0.04095888221867563</v>
+      </c>
+      <c r="F29">
+        <v>-0.008444597937330911</v>
+      </c>
+      <c r="G29">
+        <v>0.007036884656919293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.1134369114419911</v>
+        <v>-0.1271463197785829</v>
       </c>
       <c r="C30">
-        <v>0.09933556140771019</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.0670151337998155</v>
+      </c>
+      <c r="D30">
+        <v>0.1047943277561282</v>
+      </c>
+      <c r="E30">
+        <v>-0.03880748867132491</v>
+      </c>
+      <c r="F30">
+        <v>-0.0146859644615173</v>
+      </c>
+      <c r="G30">
+        <v>-0.004176398220834195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03760469601209306</v>
+        <v>-0.04294238762307424</v>
       </c>
       <c r="C31">
-        <v>0.02517469472761643</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01590347565698504</v>
+      </c>
+      <c r="D31">
+        <v>0.0295232652131967</v>
+      </c>
+      <c r="E31">
+        <v>-0.02041437950980547</v>
+      </c>
+      <c r="F31">
+        <v>-0.01499763325066276</v>
+      </c>
+      <c r="G31">
+        <v>0.01940756136056938</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.03181923175941694</v>
+        <v>-0.03356076983683625</v>
       </c>
       <c r="C32">
-        <v>0.02920563666374097</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.0182958716755653</v>
+      </c>
+      <c r="D32">
+        <v>0.01588562705914351</v>
+      </c>
+      <c r="E32">
+        <v>-0.0606637390140715</v>
+      </c>
+      <c r="F32">
+        <v>0.01364580143460952</v>
+      </c>
+      <c r="G32">
+        <v>-0.002553579872288629</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07640620124068258</v>
+        <v>-0.08794753412367327</v>
       </c>
       <c r="C33">
-        <v>0.05193706956226107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.03357229509180319</v>
+      </c>
+      <c r="D33">
+        <v>0.06369758752531421</v>
+      </c>
+      <c r="E33">
+        <v>-0.0129436999211349</v>
+      </c>
+      <c r="F33">
+        <v>-0.005844779030955032</v>
+      </c>
+      <c r="G33">
+        <v>0.0300908410678714</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05141350715709211</v>
+        <v>-0.05646335549140168</v>
       </c>
       <c r="C34">
-        <v>0.03324312220888783</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01895956123794302</v>
+      </c>
+      <c r="D34">
+        <v>0.05742581526471337</v>
+      </c>
+      <c r="E34">
+        <v>-0.00313833810081912</v>
+      </c>
+      <c r="F34">
+        <v>-0.02674367094154243</v>
+      </c>
+      <c r="G34">
+        <v>0.01391303314036876</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.03671486164579117</v>
+        <v>-0.03936151125899599</v>
       </c>
       <c r="C35">
-        <v>0.01381700687427055</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.005927372363721159</v>
+      </c>
+      <c r="D35">
+        <v>0.009503359696294206</v>
+      </c>
+      <c r="E35">
+        <v>-0.0292502559240562</v>
+      </c>
+      <c r="F35">
+        <v>0.00481441733179713</v>
+      </c>
+      <c r="G35">
+        <v>0.01206493492374164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01917626733479496</v>
+        <v>-0.02302001422502946</v>
       </c>
       <c r="C36">
-        <v>0.01581633268530719</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01049521848641142</v>
+      </c>
+      <c r="D36">
+        <v>0.01869809110472782</v>
+      </c>
+      <c r="E36">
+        <v>-0.033643615677118</v>
+      </c>
+      <c r="F36">
+        <v>-0.01992293294206268</v>
+      </c>
+      <c r="G36">
+        <v>0.01806071177080696</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03679993850369625</v>
+        <v>-0.03988274786092524</v>
       </c>
       <c r="C38">
-        <v>0.0128642261361304</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.003813696002767565</v>
+      </c>
+      <c r="D38">
+        <v>0.01181373918696081</v>
+      </c>
+      <c r="E38">
+        <v>-0.05905686040888716</v>
+      </c>
+      <c r="F38">
+        <v>0.02148874710501567</v>
+      </c>
+      <c r="G38">
+        <v>-0.02388817187574321</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08702278725597773</v>
+        <v>-0.09951190942086281</v>
       </c>
       <c r="C39">
-        <v>0.08059468114742395</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05428844269041485</v>
+      </c>
+      <c r="D39">
+        <v>0.08614090248405837</v>
+      </c>
+      <c r="E39">
+        <v>0.02325267087602584</v>
+      </c>
+      <c r="F39">
+        <v>-0.02399317837718793</v>
+      </c>
+      <c r="G39">
+        <v>-0.006084845388802533</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.06792474268583812</v>
+        <v>-0.07488711013542891</v>
       </c>
       <c r="C40">
-        <v>0.05854984748877698</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.04024306154367828</v>
+      </c>
+      <c r="D40">
+        <v>0.01012602019598614</v>
+      </c>
+      <c r="E40">
+        <v>-0.02800186554811788</v>
+      </c>
+      <c r="F40">
+        <v>0.04590063631620304</v>
+      </c>
+      <c r="G40">
+        <v>-0.03392675509535249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03933200660599125</v>
+        <v>-0.04228688387274201</v>
       </c>
       <c r="C41">
-        <v>0.01710340269741409</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.008287149624432501</v>
+      </c>
+      <c r="D41">
+        <v>0.04209187913741038</v>
+      </c>
+      <c r="E41">
+        <v>-0.00965625078065699</v>
+      </c>
+      <c r="F41">
+        <v>0.01040733814290894</v>
+      </c>
+      <c r="G41">
+        <v>-0.002149509517450753</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04106451270995513</v>
+        <v>-0.04908203526046435</v>
       </c>
       <c r="C43">
-        <v>0.03745872283499707</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.02394865073759686</v>
+      </c>
+      <c r="D43">
+        <v>0.02824036935589899</v>
+      </c>
+      <c r="E43">
+        <v>-0.01885145828696573</v>
+      </c>
+      <c r="F43">
+        <v>-0.01075388670352262</v>
+      </c>
+      <c r="G43">
+        <v>0.01451404773574347</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.08723955103476422</v>
+        <v>-0.08956991689710324</v>
       </c>
       <c r="C44">
-        <v>0.09294315212054075</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06157601614477911</v>
+      </c>
+      <c r="D44">
+        <v>0.06228888278401444</v>
+      </c>
+      <c r="E44">
+        <v>-0.09368657448864794</v>
+      </c>
+      <c r="F44">
+        <v>-0.06259965360332415</v>
+      </c>
+      <c r="G44">
+        <v>-0.005784758536310234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02729876869330028</v>
+        <v>-0.02825638352159585</v>
       </c>
       <c r="C46">
-        <v>0.0196477529954091</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.01237903336448438</v>
+      </c>
+      <c r="D46">
+        <v>0.03299081690822056</v>
+      </c>
+      <c r="E46">
+        <v>-0.01947205653225031</v>
+      </c>
+      <c r="F46">
+        <v>-0.01815315797339439</v>
+      </c>
+      <c r="G46">
+        <v>-0.00635244662760266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02958952369287191</v>
+        <v>-0.03273248000542193</v>
       </c>
       <c r="C47">
-        <v>0.02198144805083342</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01369969164283874</v>
+      </c>
+      <c r="D47">
+        <v>0.01748962056056935</v>
+      </c>
+      <c r="E47">
+        <v>-0.05166075810952166</v>
+      </c>
+      <c r="F47">
+        <v>-0.01286025556514119</v>
+      </c>
+      <c r="G47">
+        <v>0.02609529210565009</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02792864298058811</v>
+        <v>-0.03216010429067565</v>
       </c>
       <c r="C48">
-        <v>0.01940377374204681</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.01214101347822694</v>
+      </c>
+      <c r="D48">
+        <v>0.02867783625737258</v>
+      </c>
+      <c r="E48">
+        <v>-0.04261310854492872</v>
+      </c>
+      <c r="F48">
+        <v>-0.01870705965851168</v>
+      </c>
+      <c r="G48">
+        <v>0.009861692897273308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1549385878245391</v>
+        <v>-0.1770910134645887</v>
       </c>
       <c r="C49">
-        <v>0.09573322592822212</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.05962509856034007</v>
+      </c>
+      <c r="D49">
+        <v>0.009932209663372892</v>
+      </c>
+      <c r="E49">
+        <v>0.1203954767618642</v>
+      </c>
+      <c r="F49">
+        <v>-0.01641435921869698</v>
+      </c>
+      <c r="G49">
+        <v>0.07507417059770011</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03220711346820376</v>
+        <v>-0.03983738504701278</v>
       </c>
       <c r="C50">
-        <v>0.02662539677782997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.0217291699442345</v>
+      </c>
+      <c r="D50">
+        <v>0.03892045862367977</v>
+      </c>
+      <c r="E50">
+        <v>-0.04514008097985318</v>
+      </c>
+      <c r="F50">
+        <v>-0.02690778289322623</v>
+      </c>
+      <c r="G50">
+        <v>0.02020878053999895</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.0245437087485641</v>
+        <v>-0.02597161453035359</v>
       </c>
       <c r="C51">
-        <v>0.01896305090212406</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.01147681111362392</v>
+      </c>
+      <c r="D51">
+        <v>0.02600774681190983</v>
+      </c>
+      <c r="E51">
+        <v>-0.01463960257308572</v>
+      </c>
+      <c r="F51">
+        <v>-0.006996374968729432</v>
+      </c>
+      <c r="G51">
+        <v>-0.008784142225001648</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1418670898074929</v>
+        <v>-0.1600084913610898</v>
       </c>
       <c r="C53">
-        <v>0.1037490090664726</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.07051635533852466</v>
+      </c>
+      <c r="D53">
+        <v>0.02291202569725615</v>
+      </c>
+      <c r="E53">
+        <v>0.03373917654787169</v>
+      </c>
+      <c r="F53">
+        <v>-0.02511398153320693</v>
+      </c>
+      <c r="G53">
+        <v>0.02484622615727511</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.05243813311115019</v>
+        <v>-0.05577275650547982</v>
       </c>
       <c r="C54">
-        <v>0.02631201013453171</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.0127264727031462</v>
+      </c>
+      <c r="D54">
+        <v>0.0365612392365935</v>
+      </c>
+      <c r="E54">
+        <v>-0.0413959237279025</v>
+      </c>
+      <c r="F54">
+        <v>-0.01203200525988066</v>
+      </c>
+      <c r="G54">
+        <v>0.009433377722941101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.09340676873789749</v>
+        <v>-0.1005998497654617</v>
       </c>
       <c r="C55">
-        <v>0.06447325994005108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.04339031598123287</v>
+      </c>
+      <c r="D55">
+        <v>0.03291395864687222</v>
+      </c>
+      <c r="E55">
+        <v>-0.009073763971108928</v>
+      </c>
+      <c r="F55">
+        <v>-0.02765986445960801</v>
+      </c>
+      <c r="G55">
+        <v>0.008353420292753228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1369049462196614</v>
+        <v>-0.1584305740248048</v>
       </c>
       <c r="C56">
-        <v>0.1115807318580194</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.07769868377874056</v>
+      </c>
+      <c r="D56">
+        <v>0.01655450057120878</v>
+      </c>
+      <c r="E56">
+        <v>0.03585470711436561</v>
+      </c>
+      <c r="F56">
+        <v>-0.05843301865838368</v>
+      </c>
+      <c r="G56">
+        <v>0.0377078712568173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.1163409653602032</v>
+        <v>-0.1080702654109594</v>
       </c>
       <c r="C58">
-        <v>0.03418567567040391</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.0009402453492468234</v>
+      </c>
+      <c r="D58">
+        <v>0.05284460603036208</v>
+      </c>
+      <c r="E58">
+        <v>-0.173198174892133</v>
+      </c>
+      <c r="F58">
+        <v>-0.05143075130445961</v>
+      </c>
+      <c r="G58">
+        <v>0.04294291053113313</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1059503919182119</v>
+        <v>-0.1473030585426599</v>
       </c>
       <c r="C59">
-        <v>0.08793066740624605</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08537463714632716</v>
+      </c>
+      <c r="D59">
+        <v>-0.3501332464139635</v>
+      </c>
+      <c r="E59">
+        <v>-0.04360786423530503</v>
+      </c>
+      <c r="F59">
+        <v>0.02362950671495528</v>
+      </c>
+      <c r="G59">
+        <v>0.0107310542015342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1824554626759974</v>
+        <v>-0.212704516145036</v>
       </c>
       <c r="C60">
-        <v>0.1186074046543574</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.08033268899529077</v>
+      </c>
+      <c r="D60">
+        <v>0.01586386427562685</v>
+      </c>
+      <c r="E60">
+        <v>0.07301930381888737</v>
+      </c>
+      <c r="F60">
+        <v>-0.03860385040786741</v>
+      </c>
+      <c r="G60">
+        <v>-0.03462351406190056</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.07650180992737568</v>
+        <v>-0.08420145547456964</v>
       </c>
       <c r="C61">
-        <v>0.05905835790010965</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03877368940178443</v>
+      </c>
+      <c r="D61">
+        <v>0.06140761299653485</v>
+      </c>
+      <c r="E61">
+        <v>0.01569966342042727</v>
+      </c>
+      <c r="F61">
+        <v>-0.008423058722889305</v>
+      </c>
+      <c r="G61">
+        <v>0.03362002623175914</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1158791871221296</v>
+        <v>-0.1374039453617668</v>
       </c>
       <c r="C62">
-        <v>0.08385726617926748</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.05954862302707126</v>
+      </c>
+      <c r="D62">
+        <v>0.02711473741996333</v>
+      </c>
+      <c r="E62">
+        <v>0.05122154378055783</v>
+      </c>
+      <c r="F62">
+        <v>-0.02270950278847654</v>
+      </c>
+      <c r="G62">
+        <v>-0.01183677065326895</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04917770593636692</v>
+        <v>-0.0515660811879032</v>
       </c>
       <c r="C63">
-        <v>0.03010313420709603</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01812185376032499</v>
+      </c>
+      <c r="D63">
+        <v>0.0300352019138148</v>
+      </c>
+      <c r="E63">
+        <v>-0.04834336927057705</v>
+      </c>
+      <c r="F63">
+        <v>-0.01643250362465948</v>
+      </c>
+      <c r="G63">
+        <v>-0.02411092625903003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1059727812666821</v>
+        <v>-0.1107959216464507</v>
       </c>
       <c r="C64">
-        <v>0.0481152598894602</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.0250954537349586</v>
+      </c>
+      <c r="D64">
+        <v>0.04746145774603796</v>
+      </c>
+      <c r="E64">
+        <v>-0.03004887887504417</v>
+      </c>
+      <c r="F64">
+        <v>-0.05330245804863015</v>
+      </c>
+      <c r="G64">
+        <v>-0.01624640821843483</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1072596780043056</v>
+        <v>-0.1205983625765917</v>
       </c>
       <c r="C65">
-        <v>0.06665692272439291</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04448017328508632</v>
+      </c>
+      <c r="D65">
+        <v>0.0153887646557009</v>
+      </c>
+      <c r="E65">
+        <v>0.004788430459033896</v>
+      </c>
+      <c r="F65">
+        <v>-0.05801812189292059</v>
+      </c>
+      <c r="G65">
+        <v>-0.04290298282821856</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1347244163342345</v>
+        <v>-0.1515063278940174</v>
       </c>
       <c r="C66">
-        <v>0.09131398722295844</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.05727030578131939</v>
+      </c>
+      <c r="D66">
+        <v>0.1212508561427473</v>
+      </c>
+      <c r="E66">
+        <v>0.05925191477794641</v>
+      </c>
+      <c r="F66">
+        <v>-0.04403504025014909</v>
+      </c>
+      <c r="G66">
+        <v>0.01369673853737701</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06845876618667938</v>
+        <v>-0.07350116545312672</v>
       </c>
       <c r="C67">
-        <v>0.0252370419253357</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.008896688096972617</v>
+      </c>
+      <c r="D67">
+        <v>0.02535392982995678</v>
+      </c>
+      <c r="E67">
+        <v>-0.0273878609072824</v>
+      </c>
+      <c r="F67">
+        <v>0.00424842486119184</v>
+      </c>
+      <c r="G67">
+        <v>-0.0002785939564336626</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05374212542178381</v>
+        <v>-0.06946124529694472</v>
       </c>
       <c r="C68">
-        <v>0.04876242723053915</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04829298147015716</v>
+      </c>
+      <c r="D68">
+        <v>-0.265427797536987</v>
+      </c>
+      <c r="E68">
+        <v>-0.04821045420142406</v>
+      </c>
+      <c r="F68">
+        <v>-0.01171724250954345</v>
+      </c>
+      <c r="G68">
+        <v>0.0007772704998388816</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.04758666955777498</v>
+        <v>-0.05098527378887088</v>
       </c>
       <c r="C69">
-        <v>0.02838582559204071</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.01321473221425408</v>
+      </c>
+      <c r="D69">
+        <v>0.03587925998921532</v>
+      </c>
+      <c r="E69">
+        <v>-0.0176812480991842</v>
+      </c>
+      <c r="F69">
+        <v>-0.003280719760973808</v>
+      </c>
+      <c r="G69">
+        <v>0.00901011253526812</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.003514594143281622</v>
+        <v>-0.01084426424699337</v>
       </c>
       <c r="C70">
-        <v>-0.001765792221763781</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0008253015320975327</v>
+      </c>
+      <c r="D70">
+        <v>-0.001826071817969513</v>
+      </c>
+      <c r="E70">
+        <v>0.004853463646305024</v>
+      </c>
+      <c r="F70">
+        <v>0.003308146140880203</v>
+      </c>
+      <c r="G70">
+        <v>-0.0001013901997809346</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.05640308015380647</v>
+        <v>-0.07309249613140956</v>
       </c>
       <c r="C71">
-        <v>0.04985788613158877</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04849931392003112</v>
+      </c>
+      <c r="D71">
+        <v>-0.2992783848918938</v>
+      </c>
+      <c r="E71">
+        <v>-0.05073529551753807</v>
+      </c>
+      <c r="F71">
+        <v>-0.03244899000475499</v>
+      </c>
+      <c r="G71">
+        <v>0.002022210806823571</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1287940137122081</v>
+        <v>-0.1499288850949378</v>
       </c>
       <c r="C72">
-        <v>0.07833070666039472</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.0520843369697835</v>
+      </c>
+      <c r="D72">
+        <v>0.01409363101162343</v>
+      </c>
+      <c r="E72">
+        <v>0.1023043855146463</v>
+      </c>
+      <c r="F72">
+        <v>0.1529826603358288</v>
+      </c>
+      <c r="G72">
+        <v>-0.1151638966104826</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2422507296463658</v>
+        <v>-0.2680778182488123</v>
       </c>
       <c r="C73">
-        <v>0.1425033901403785</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.08847593365422578</v>
+      </c>
+      <c r="D73">
+        <v>0.06290917161847999</v>
+      </c>
+      <c r="E73">
+        <v>0.1851356016694453</v>
+      </c>
+      <c r="F73">
+        <v>-0.07646672585391484</v>
+      </c>
+      <c r="G73">
+        <v>0.1551275222201454</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.07637141928770637</v>
+        <v>-0.08878092214906359</v>
       </c>
       <c r="C74">
-        <v>0.0823458980401689</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.06274995460385605</v>
+      </c>
+      <c r="D74">
+        <v>0.03474829587696818</v>
+      </c>
+      <c r="E74">
+        <v>0.001828529469020097</v>
+      </c>
+      <c r="F74">
+        <v>0.004419633225453638</v>
+      </c>
+      <c r="G74">
+        <v>0.03536963202862246</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.09511521009331553</v>
+        <v>-0.1069597642033466</v>
       </c>
       <c r="C75">
-        <v>0.07310646499165112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.04452595427307735</v>
+      </c>
+      <c r="D75">
+        <v>0.02070296857984904</v>
+      </c>
+      <c r="E75">
+        <v>-0.00911767083768851</v>
+      </c>
+      <c r="F75">
+        <v>-0.06634451470325309</v>
+      </c>
+      <c r="G75">
+        <v>0.0128404820396857</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1176327670194143</v>
+        <v>-0.1325943572392421</v>
       </c>
       <c r="C76">
-        <v>0.1004294532137274</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.0692523586599209</v>
+      </c>
+      <c r="D76">
+        <v>0.05652713080636988</v>
+      </c>
+      <c r="E76">
+        <v>-0.01043650191177062</v>
+      </c>
+      <c r="F76">
+        <v>-0.06923323269203452</v>
+      </c>
+      <c r="G76">
+        <v>0.01727599708171645</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.09335281735538653</v>
+        <v>-0.09998877787940387</v>
       </c>
       <c r="C77">
-        <v>0.06604905171152316</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.0336309694226081</v>
+      </c>
+      <c r="D77">
+        <v>0.04302839048088638</v>
+      </c>
+      <c r="E77">
+        <v>0.06011811193527538</v>
+      </c>
+      <c r="F77">
+        <v>-0.2714806730685932</v>
+      </c>
+      <c r="G77">
+        <v>-0.894301704905887</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08323479213260196</v>
+        <v>-0.1005304724612478</v>
       </c>
       <c r="C78">
-        <v>0.04722888216517075</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03205183841543351</v>
+      </c>
+      <c r="D78">
+        <v>0.07557846301368744</v>
+      </c>
+      <c r="E78">
+        <v>-0.04996944177350542</v>
+      </c>
+      <c r="F78">
+        <v>0.004219743960730684</v>
+      </c>
+      <c r="G78">
+        <v>-0.02591532509653289</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1347228450593937</v>
+        <v>-0.1501810131948605</v>
       </c>
       <c r="C79">
-        <v>0.1031217382581444</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.06537646770764557</v>
+      </c>
+      <c r="D79">
+        <v>0.03172571245501146</v>
+      </c>
+      <c r="E79">
+        <v>0.01870126657332874</v>
+      </c>
+      <c r="F79">
+        <v>-0.03676187794749979</v>
+      </c>
+      <c r="G79">
+        <v>0.01862954135233249</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04489420309787574</v>
+        <v>-0.04176900975051569</v>
       </c>
       <c r="C80">
-        <v>0.01962897085098367</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.006895309961719383</v>
+      </c>
+      <c r="D80">
+        <v>0.02598272056958939</v>
+      </c>
+      <c r="E80">
+        <v>-0.004114803542643364</v>
+      </c>
+      <c r="F80">
+        <v>0.02514721423400224</v>
+      </c>
+      <c r="G80">
+        <v>0.04896666769114507</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1078539421526462</v>
+        <v>-0.1206056334782035</v>
       </c>
       <c r="C81">
-        <v>0.08167748694268101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.05259402530978183</v>
+      </c>
+      <c r="D81">
+        <v>0.03738903702545921</v>
+      </c>
+      <c r="E81">
+        <v>0.005856782866862561</v>
+      </c>
+      <c r="F81">
+        <v>-0.0380165991283113</v>
+      </c>
+      <c r="G81">
+        <v>0.05532069814181601</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.113864220340707</v>
+        <v>-0.1251349085263232</v>
       </c>
       <c r="C82">
-        <v>0.09440035498987094</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.06091576460824259</v>
+      </c>
+      <c r="D82">
+        <v>0.03804967487575676</v>
+      </c>
+      <c r="E82">
+        <v>0.0224230160406357</v>
+      </c>
+      <c r="F82">
+        <v>-0.05300197709263878</v>
+      </c>
+      <c r="G82">
+        <v>0.06166412679924893</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.07141106073041449</v>
+        <v>-0.07055311182638487</v>
       </c>
       <c r="C83">
-        <v>0.01648619469424854</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.004596133560666378</v>
+      </c>
+      <c r="D83">
+        <v>0.04322084354982601</v>
+      </c>
+      <c r="E83">
+        <v>-0.009064808285356402</v>
+      </c>
+      <c r="F83">
+        <v>-0.005034898888873439</v>
+      </c>
+      <c r="G83">
+        <v>0.05733357674363198</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.02403229853292444</v>
+        <v>-0.03301983065942659</v>
       </c>
       <c r="C84">
-        <v>0.01943387525511365</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01901175654613364</v>
+      </c>
+      <c r="D84">
+        <v>0.01422947209763158</v>
+      </c>
+      <c r="E84">
+        <v>-0.009345147509081385</v>
+      </c>
+      <c r="F84">
+        <v>0.03129598273251594</v>
+      </c>
+      <c r="G84">
+        <v>0.03840802116156371</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1164766298190128</v>
+        <v>-0.1178192070020204</v>
       </c>
       <c r="C85">
-        <v>0.08160340661406963</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.04560811714368494</v>
+      </c>
+      <c r="D85">
+        <v>0.03705656986362493</v>
+      </c>
+      <c r="E85">
+        <v>-0.01266221785791864</v>
+      </c>
+      <c r="F85">
+        <v>-0.08214869187545742</v>
+      </c>
+      <c r="G85">
+        <v>0.003895061467269532</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.04395095085507468</v>
+        <v>-0.04698198403709226</v>
       </c>
       <c r="C86">
-        <v>0.02572343682575606</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01192910753773618</v>
+      </c>
+      <c r="D86">
+        <v>0.01483748099089334</v>
+      </c>
+      <c r="E86">
+        <v>-0.04295768249375238</v>
+      </c>
+      <c r="F86">
+        <v>-0.01609939765209833</v>
+      </c>
+      <c r="G86">
+        <v>-0.0006817714762527855</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.1127972524853633</v>
+        <v>-0.1188376636743978</v>
       </c>
       <c r="C87">
-        <v>0.08135757048721286</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.04778137905150664</v>
+      </c>
+      <c r="D87">
+        <v>0.0737498885809733</v>
+      </c>
+      <c r="E87">
+        <v>-0.009814918163176558</v>
+      </c>
+      <c r="F87">
+        <v>-0.03106175491292699</v>
+      </c>
+      <c r="G87">
+        <v>-0.09959644285706865</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05301046932797677</v>
+        <v>-0.05694393414632468</v>
       </c>
       <c r="C88">
-        <v>0.0430552075229308</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.02631776661400198</v>
+      </c>
+      <c r="D88">
+        <v>0.02657077779405599</v>
+      </c>
+      <c r="E88">
+        <v>-0.02145022526288607</v>
+      </c>
+      <c r="F88">
+        <v>-0.0077758632000731</v>
+      </c>
+      <c r="G88">
+        <v>-0.007237212109070635</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07443611126427162</v>
+        <v>-0.1059842510142689</v>
       </c>
       <c r="C89">
-        <v>0.08205788990563002</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07968226946033391</v>
+      </c>
+      <c r="D89">
+        <v>-0.3263934227775682</v>
+      </c>
+      <c r="E89">
+        <v>-0.09034726829161666</v>
+      </c>
+      <c r="F89">
+        <v>-0.05050957454477554</v>
+      </c>
+      <c r="G89">
+        <v>0.01202955269929908</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06948507668811417</v>
+        <v>-0.09161067817095055</v>
       </c>
       <c r="C90">
-        <v>0.07343439193558839</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06951586778451498</v>
+      </c>
+      <c r="D90">
+        <v>-0.3117532251537847</v>
+      </c>
+      <c r="E90">
+        <v>-0.07227888228972729</v>
+      </c>
+      <c r="F90">
+        <v>0.01795122354119906</v>
+      </c>
+      <c r="G90">
+        <v>0.0183559012058494</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.07921009950231982</v>
+        <v>-0.08855582009431243</v>
       </c>
       <c r="C91">
-        <v>0.06502237825630612</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.04261627956936873</v>
+      </c>
+      <c r="D91">
+        <v>0.02894318041285823</v>
+      </c>
+      <c r="E91">
+        <v>-0.006024098814470727</v>
+      </c>
+      <c r="F91">
+        <v>-0.01409861854682411</v>
+      </c>
+      <c r="G91">
+        <v>0.03352193478684354</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.08245244850088318</v>
+        <v>-0.1042674872132793</v>
       </c>
       <c r="C92">
-        <v>0.06504784402014945</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.06208349288746669</v>
+      </c>
+      <c r="D92">
+        <v>-0.3283689456447426</v>
+      </c>
+      <c r="E92">
+        <v>-0.02974143207900814</v>
+      </c>
+      <c r="F92">
+        <v>-0.02614664601084887</v>
+      </c>
+      <c r="G92">
+        <v>-0.02175710022429504</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.061493180577726</v>
+        <v>-0.08617992447188243</v>
       </c>
       <c r="C93">
-        <v>0.06887612270047959</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.06774832655534689</v>
+      </c>
+      <c r="D93">
+        <v>-0.299242310238212</v>
+      </c>
+      <c r="E93">
+        <v>-0.04329143013112718</v>
+      </c>
+      <c r="F93">
+        <v>-0.03405541402363074</v>
+      </c>
+      <c r="G93">
+        <v>-0.01395732952353654</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1251669909684876</v>
+        <v>-0.1281478258303232</v>
       </c>
       <c r="C94">
-        <v>0.07949724113260478</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03909422371250471</v>
+      </c>
+      <c r="D94">
+        <v>0.05814847572794231</v>
+      </c>
+      <c r="E94">
+        <v>0.02571141293630179</v>
+      </c>
+      <c r="F94">
+        <v>-0.0476806403119319</v>
+      </c>
+      <c r="G94">
+        <v>0.03868315106971056</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1143095529284219</v>
+        <v>-0.1197821189637419</v>
       </c>
       <c r="C95">
-        <v>0.05613189016201863</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.02799057237225457</v>
+      </c>
+      <c r="D95">
+        <v>0.05796239296083937</v>
+      </c>
+      <c r="E95">
+        <v>0.0126895898650466</v>
+      </c>
+      <c r="F95">
+        <v>-0.03871114022001133</v>
+      </c>
+      <c r="G95">
+        <v>-0.01326778988086551</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1880899381088934</v>
+        <v>-0.2219585299864453</v>
       </c>
       <c r="C97">
-        <v>0.0764445128583425</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.04260676265946908</v>
+      </c>
+      <c r="D97">
+        <v>-0.007241989882298985</v>
+      </c>
+      <c r="E97">
+        <v>0.200825571765716</v>
+      </c>
+      <c r="F97">
+        <v>0.8764546253598172</v>
+      </c>
+      <c r="G97">
+        <v>-0.2089651190911339</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2351152106873353</v>
+        <v>-0.2588558253833803</v>
       </c>
       <c r="C98">
-        <v>0.1208347973399467</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.06297162325478582</v>
+      </c>
+      <c r="D98">
+        <v>0.03837634076511216</v>
+      </c>
+      <c r="E98">
+        <v>0.1481992568063937</v>
+      </c>
+      <c r="F98">
+        <v>-0.02504923719238931</v>
+      </c>
+      <c r="G98">
+        <v>0.2367489294497596</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.5671974119656373</v>
+        <v>-0.3742397081860431</v>
       </c>
       <c r="C99">
-        <v>-0.8136420075968186</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.916760810840503</v>
+      </c>
+      <c r="D99">
+        <v>-0.07122259177866236</v>
+      </c>
+      <c r="E99">
+        <v>-0.04801117375804156</v>
+      </c>
+      <c r="F99">
+        <v>-0.03716403389015874</v>
+      </c>
+      <c r="G99">
+        <v>0.001742953384062911</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.03626167556255012</v>
+        <v>-0.04228613896562877</v>
       </c>
       <c r="C101">
-        <v>0.03309396711591092</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02563711024347588</v>
+      </c>
+      <c r="D101">
+        <v>0.01022471296929842</v>
+      </c>
+      <c r="E101">
+        <v>-0.04008426550768112</v>
+      </c>
+      <c r="F101">
+        <v>-0.007900868919093319</v>
+      </c>
+      <c r="G101">
+        <v>0.007575547568463583</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
